--- a/xlsx/Temario.xlsx
+++ b/xlsx/Temario.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alonso/Desktop/Metodología/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alonso/Documents/projects-code/PracticeSciencemx/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CAC3570A-561E-1E48-B515-F94142DAEFA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7911592A-F23F-EE40-BB24-7A55B6AD6B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1500" windowWidth="26020" windowHeight="15120" xr2:uid="{EC76C01F-0ACB-CB4C-AD5D-F9B5DE021894}"/>
   </bookViews>
@@ -36,26 +36,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Tema</t>
   </si>
   <si>
-    <t>Descripción</t>
-  </si>
-  <si>
-    <t>Fecha</t>
-  </si>
-  <si>
-    <t>Evidencia de aprendizaje</t>
-  </si>
-  <si>
     <t>Antecedentes de la metodología de la investigación para el desarrollo del conocimiento.</t>
   </si>
   <si>
-    <t>-Miniexamen</t>
-  </si>
-  <si>
     <t>Investigación científica y los tipos de investigación en México y su evolución en la profesión de enfermería.</t>
   </si>
   <si>
@@ -90,21 +78,6 @@
   </si>
   <si>
     <t>- Objetivos</t>
-  </si>
-  <si>
-    <t>-Escritura de introducción</t>
-  </si>
-  <si>
-    <t>-Escritura de justificación</t>
-  </si>
-  <si>
-    <t>-Escritura de planteamiento del problema</t>
-  </si>
-  <si>
-    <t>-Escritura de hipótesis</t>
-  </si>
-  <si>
-    <t>-Escritura de objetivos</t>
   </si>
   <si>
     <t>Materiales y Metodos.</t>
@@ -232,18 +205,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Aptos"/>
     </font>
     <font>
       <b/>
@@ -272,7 +240,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -296,20 +264,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -323,28 +280,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -369,57 +304,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="9"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="9"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -756,248 +667,123 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CDBA29A-5F96-1849-BD21-1FEAD41BEB55}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D22"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="98.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+    </row>
+    <row r="3" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+    </row>
+    <row r="4" spans="1:1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="188" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="5" spans="1:1" ht="239" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4" t="s">
+    </row>
+    <row r="6" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="256" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="7" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="103" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    </row>
+    <row r="8" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="239" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
+    </row>
+    <row r="9" spans="1:1" ht="136" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15">
-        <v>1</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-    </row>
-    <row r="7" spans="1:4" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    </row>
+    <row r="10" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" ht="103" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    </row>
+    <row r="11" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4">
-        <v>2</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+    </row>
+    <row r="12" spans="1:1" ht="170" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15">
-        <v>4</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="136" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+    </row>
+    <row r="13" spans="1:1" ht="153" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="7" t="s">
+    </row>
+    <row r="14" spans="1:1" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="85" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="7" t="s">
+    <row r="20" spans="1:1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="102" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="7" t="s">
+    <row r="21" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="170" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="153" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="10"/>
-    </row>
-    <row r="16" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15">
-        <v>4</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="338" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-    </row>
-    <row r="18" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-    </row>
-    <row r="19" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-    </row>
-    <row r="20" spans="1:4" ht="402" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-    </row>
-    <row r="21" spans="1:4" ht="204" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-    </row>
-    <row r="22" spans="1:4" ht="137" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4">
-        <v>1</v>
-      </c>
-      <c r="D22" s="4"/>
-    </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="C16:C21"/>
-    <mergeCell ref="D16:D21"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="B9:B15"/>
-    <mergeCell ref="C9:C15"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/xlsx/Temario.xlsx
+++ b/xlsx/Temario.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alonso/Documents/projects-code/PracticeSciencemx/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7911592A-F23F-EE40-BB24-7A55B6AD6B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F39341-194A-6A4D-8D33-DE4AF5FD2102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1500" windowWidth="26020" windowHeight="15120" xr2:uid="{EC76C01F-0ACB-CB4C-AD5D-F9B5DE021894}"/>
   </bookViews>
@@ -41,24 +41,12 @@
     <t>Tema</t>
   </si>
   <si>
-    <t>Antecedentes de la metodología de la investigación para el desarrollo del conocimiento.</t>
-  </si>
-  <si>
     <t>Investigación científica y los tipos de investigación en México y su evolución en la profesión de enfermería.</t>
   </si>
   <si>
-    <t>Elementos, tipos y características del conocimiento</t>
-  </si>
-  <si>
     <t>Presentación Cuerpos Académicos (CA) de las Facultades y Líneas de generación y aplicación de conocimiento (LGyAC).</t>
   </si>
   <si>
-    <t>Problemas del método científico</t>
-  </si>
-  <si>
-    <t>Conocimiento científico, ciencia y método científico</t>
-  </si>
-  <si>
     <t xml:space="preserve">Anteproyecto. </t>
   </si>
   <si>
@@ -199,6 +187,18 @@
   </si>
   <si>
     <t>Tipos de evidencia y evaluación de una publicación científica</t>
+  </si>
+  <si>
+    <t>Historía del pensamiento científico</t>
+  </si>
+  <si>
+    <t>Pensamiento crítico</t>
+  </si>
+  <si>
+    <t>Método científico</t>
+  </si>
+  <si>
+    <t>Pensamiento crítico 2</t>
   </si>
 </sst>
 </file>
@@ -670,7 +670,7 @@
   <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -685,102 +685,102 @@
     </row>
     <row r="2" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="239" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="136" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="170" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="153" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
